--- a/biology/Botanique/Lady_Mary_Fitzwilliam/Lady_Mary_Fitzwilliam.xlsx
+++ b/biology/Botanique/Lady_Mary_Fitzwilliam/Lady_Mary_Fitzwilliam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Lady Mary Fitzwilliam' est un cultivar de rosier obtenu avant 1882 par le rosiériste anglais Henry Bennett (1823-1890). C'est l'un des premiers hybrides de thé et le premier en Angleterre, ouvrant la voie aux roses du XXe siècle ; il est issu d'un croisement 'Devoniensis' (rosier thé, Foster, 1838) x 'Victor Verdier' (hybride perpétuel, Lacharme, 1859) ; il est à l'origine, en tant que parent pollen, d'un grand nombre de descendants[1] (plus de 1 300)[2], grâce à ses qualités reconnues par les hybrideurs.
+'Lady Mary Fitzwilliam' est un cultivar de rosier obtenu avant 1882 par le rosiériste anglais Henry Bennett (1823-1890). C'est l'un des premiers hybrides de thé et le premier en Angleterre, ouvrant la voie aux roses du XXe siècle ; il est issu d'un croisement 'Devoniensis' (rosier thé, Foster, 1838) x 'Victor Verdier' (hybride perpétuel, Lacharme, 1859) ; il est à l'origine, en tant que parent pollen, d'un grand nombre de descendants (plus de 1 300), grâce à ses qualités reconnues par les hybrideurs.
 Il doit son nom à une aristocrate anglaise, lady Mary Fitzwilliam (1851-1921), épouse de Hugh Le Despencer-Boscawen (1849-1908).
 </t>
         </is>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de thé historique[3] présente de grandes fleurs rose pâle fortement parfumées[4]. Elles sont pleines, en forme de coupe, comptent de 26 à 40 pétales[5].
-Ce rosier est remontant[6]. Son buisson s'élève de 60 cm à 80 cm. 
-Sa zone de rusticité est de 6b à 9b ; il résiste donc aux hivers froids. Il doit être soigné contre la maladie des taches noires[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de thé historique présente de grandes fleurs rose pâle fortement parfumées. Elles sont pleines, en forme de coupe, comptent de 26 à 40 pétales.
+Ce rosier est remontant. Son buisson s'élève de 60 cm à 80 cm. 
+Sa zone de rusticité est de 6b à 9b ; il résiste donc aux hivers froids. Il doit être soigné contre la maladie des taches noires.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi ses descendants, l'on distingue 
 'Madame Caroline Testout' (Pernet-Ducher, 1890) par croisement avec 'Madame de Tartas' (Bernède, 1859)
@@ -555,7 +571,7 @@
 'Souvenir du Président Carnot' (Pernet-Ducher, 1894)
 'Mrs W. J. Grant' (Dickson, 1895) par croisement avec 'La France' (Guillot, 1867)
 'Antoine Rivoire' (Pernet-Ducher, 1895) par croisement avec 'Docteur Grill'
-'Sonnenlicht' (Krüger et Kiese, 1913) par croisement avec 'Harison's Yellow'[7].</t>
+'Sonnenlicht' (Krüger et Kiese, 1913) par croisement avec 'Harison's Yellow'.</t>
         </is>
       </c>
     </row>
